--- a/final/backup/overview.xlsx
+++ b/final/backup/overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvatore\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salvatore\Desktop\BootCamp\Unit-13-Books-vs-Movies\final\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55E7AA-45CC-4AE0-9BF9-E960D67A76FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8D64C-D626-42A6-9062-CBCA28CB5B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3018137-68C5-4512-BD81-65DA40C83362}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>Source:</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t># of records: 1,637</t>
+  </si>
+  <si>
+    <t>Dataframe: ratings_df</t>
+  </si>
+  <si>
+    <t>Table: ratings</t>
   </si>
 </sst>
 </file>
@@ -763,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF22B15-2452-4686-9353-412FF6B42305}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1308,10 @@
         <v>37</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -1324,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
